--- a/analyses/Histogram_ont/ontology_stats_additional_stats.xlsx
+++ b/analyses/Histogram_ont/ontology_stats_additional_stats.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anubhav\Documents\GitHub\synapse_ontology\analyses\Histogram_ont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5A9C9E-9B69-4072-A1B1-AE1357DE713A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD2FC7-DE8F-44A4-A667-891FDBF39F51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="4824" xr2:uid="{564D8B39-1B75-4B85-ACF1-78A904595C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>option</t>
   </si>
@@ -105,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +118,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,20 +466,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A202E51F-F95D-4B9B-A87F-6317DA37FC9D}">
-  <dimension ref="A1:T91"/>
+  <dimension ref="A1:DG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="8" width="8.83984375" style="1"/>
+    <col min="7" max="7" width="13.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" style="1"/>
     <col min="19" max="19" width="14.68359375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.1015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="111" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2</v>
       </c>
@@ -555,16 +575,16 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -587,54 +607,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
         <v>0.6</v>
       </c>
       <c r="D3">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>835</v>
+        <v>648</v>
       </c>
       <c r="F3">
-        <v>361627</v>
+        <v>239793</v>
       </c>
       <c r="G3" s="1">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <v>16</v>
@@ -643,47 +663,47 @@
         <v>5</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S66" si="0">AVERAGE(J3,L3,N3,P3,R3)</f>
-        <v>3.4</v>
+        <f>AVERAGE(J3,L3,N3,P3,R3)</f>
+        <v>3</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T66" si="1">MEDIAN(J3,L3,N3,P3,R3)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J3,L3,N3,P3,R3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
         <v>0.7</v>
       </c>
       <c r="D4">
-        <v>799</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="F4">
-        <v>156491</v>
+        <v>167665</v>
       </c>
       <c r="G4" s="1">
-        <v>799</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -698,59 +718,59 @@
         <v>3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <v>16</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
+        <f>AVERAGE(J4,L4,N4,P4,R4)</f>
+        <v>2.2000000000000002</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J4,L4,N4,P4,R4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
         <v>0.8</v>
       </c>
       <c r="D5">
-        <v>1425</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>35240</v>
+        <v>26231</v>
       </c>
       <c r="G5" s="1">
-        <v>1425</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -759,27 +779,27 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>16</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>AVERAGE(J5,L5,N5,P5,R5)</f>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J5,L5,N5,P5,R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2</v>
       </c>
@@ -817,33 +837,33 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J6,L6,N6,P6,R6)</f>
         <v>2.4</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J6,L6,N6,P6,R6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2</v>
       </c>
@@ -899,120 +919,120 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J7,L7,N7,P7,R7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J7,L7,N7,P7,R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
         <v>0.6</v>
       </c>
       <c r="D8">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="F8">
-        <v>329422</v>
+        <v>353361</v>
       </c>
       <c r="G8" s="1">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
         <v>5</v>
       </c>
-      <c r="M8">
-        <v>12</v>
-      </c>
-      <c r="N8">
+      <c r="S8" s="1">
+        <f>AVERAGE(J8,L8,N8,P8,R8)</f>
+        <v>3.4</v>
+      </c>
+      <c r="T8" s="1">
+        <f>MEDIAN(J8,L8,N8,P8,R8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>16</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>2</v>
-      </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
         <v>0.7</v>
       </c>
       <c r="D9">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>526</v>
+        <v>638</v>
       </c>
       <c r="F9">
-        <v>165721</v>
+        <v>227608</v>
       </c>
       <c r="G9" s="1">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I9">
         <v>14</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>3</v>
@@ -1024,146 +1044,237 @@
         <v>16</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J9,L9,N9,P9,R9)</f>
+        <v>2.4</v>
+      </c>
+      <c r="T9" s="1">
+        <f>MEDIAN(J9,L9,N9,P9,R9)</f>
+        <v>2</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="BR9" s="4"/>
+      <c r="BS9" s="4"/>
+      <c r="BT9" s="4"/>
+      <c r="BU9" s="4"/>
+      <c r="BV9" s="4"/>
+      <c r="BW9" s="4"/>
+      <c r="BX9" s="4"/>
+      <c r="BY9" s="4"/>
+      <c r="BZ9" s="4"/>
+      <c r="CA9" s="4"/>
+      <c r="CB9" s="4"/>
+      <c r="CC9" s="4"/>
+      <c r="CD9" s="4"/>
+      <c r="CE9" s="4"/>
+      <c r="CF9" s="4"/>
+      <c r="CG9" s="4"/>
+      <c r="CH9" s="4"/>
+      <c r="CI9" s="4"/>
+      <c r="CJ9" s="4"/>
+      <c r="CK9" s="4"/>
+      <c r="CL9" s="4"/>
+      <c r="CM9" s="4"/>
+      <c r="CN9" s="4"/>
+      <c r="CO9" s="4"/>
+      <c r="CP9" s="4"/>
+      <c r="CQ9" s="4"/>
+      <c r="CR9" s="4"/>
+      <c r="CS9" s="4"/>
+      <c r="CT9" s="4"/>
+      <c r="CU9" s="4"/>
+      <c r="CV9" s="4"/>
+      <c r="CW9" s="4"/>
+      <c r="CX9" s="4"/>
+      <c r="CY9" s="4"/>
+      <c r="CZ9" s="4"/>
+      <c r="DA9" s="4"/>
+      <c r="DB9" s="4"/>
+      <c r="DC9" s="4"/>
+      <c r="DD9" s="4"/>
+      <c r="DE9" s="4"/>
+      <c r="DF9" s="4"/>
+      <c r="DG9" s="4"/>
+    </row>
+    <row r="10" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>2</v>
-      </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
         <v>0.8</v>
       </c>
       <c r="D10">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="E10">
+        <v>89</v>
+      </c>
+      <c r="F10">
+        <v>30140</v>
+      </c>
+      <c r="G10" s="1">
+        <v>74</v>
+      </c>
+      <c r="H10" s="1">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <f>AVERAGE(J10,L10,N10,P10,R10)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>MEDIAN(J10,L10,N10,P10,R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>213</v>
+      </c>
+      <c r="E11" s="3">
+        <v>801</v>
+      </c>
+      <c r="F11" s="3">
+        <v>329422</v>
+      </c>
+      <c r="G11" s="3">
+        <v>213</v>
+      </c>
+      <c r="H11" s="3">
         <v>66</v>
       </c>
-      <c r="F10">
-        <v>28132</v>
-      </c>
-      <c r="G10" s="1">
-        <v>236</v>
-      </c>
-      <c r="H10" s="1">
-        <v>63</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10">
+      <c r="I11" s="3">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K10">
-        <v>12</v>
-      </c>
-      <c r="L10">
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
         <v>4</v>
       </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>0.9</v>
-      </c>
-      <c r="D11">
-        <v>227</v>
-      </c>
-      <c r="E11">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>26182</v>
-      </c>
-      <c r="G11" s="1">
-        <v>227</v>
-      </c>
-      <c r="H11" s="1">
-        <v>61</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>16</v>
+      </c>
+      <c r="R11" s="3">
         <v>5</v>
       </c>
-      <c r="O11">
-        <v>12</v>
-      </c>
-      <c r="P11">
+      <c r="S11" s="3">
+        <f>AVERAGE(J11,L11,N11,P11,R11)</f>
+        <v>3.2</v>
+      </c>
+      <c r="T11" s="3">
+        <f>MEDIAN(J11,L11,N11,P11,R11)</f>
         <v>4</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1189,25 +1300,25 @@
         <v>17</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1219,117 +1330,208 @@
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J12,L12,N12,P12,R12)</f>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.3</v>
-      </c>
-      <c r="C13">
-        <v>0.6</v>
-      </c>
-      <c r="D13">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>648</v>
-      </c>
-      <c r="F13">
-        <v>239793</v>
-      </c>
-      <c r="G13" s="1">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>14</v>
-      </c>
-      <c r="J13">
+        <f>MEDIAN(J12,L12,N12,P12,R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>245</v>
+      </c>
+      <c r="E13" s="2">
+        <v>526</v>
+      </c>
+      <c r="F13" s="2">
+        <v>165721</v>
+      </c>
+      <c r="G13" s="2">
+        <v>245</v>
+      </c>
+      <c r="H13" s="2">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="2">
+        <v>12</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>16</v>
+      </c>
+      <c r="R13" s="2">
+        <v>6</v>
+      </c>
+      <c r="S13" s="2">
+        <f>AVERAGE(J13,L13,N13,P13,R13)</f>
+        <v>4.2</v>
+      </c>
+      <c r="T13" s="2">
+        <f>MEDIAN(J13,L13,N13,P13,R13)</f>
         <v>5</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>16</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+      <c r="CB13" s="4"/>
+      <c r="CC13" s="4"/>
+      <c r="CD13" s="4"/>
+      <c r="CE13" s="4"/>
+      <c r="CF13" s="4"/>
+      <c r="CG13" s="4"/>
+      <c r="CH13" s="4"/>
+      <c r="CI13" s="4"/>
+      <c r="CJ13" s="4"/>
+      <c r="CK13" s="4"/>
+      <c r="CL13" s="4"/>
+      <c r="CM13" s="4"/>
+      <c r="CN13" s="4"/>
+      <c r="CO13" s="4"/>
+      <c r="CP13" s="4"/>
+      <c r="CQ13" s="4"/>
+      <c r="CR13" s="4"/>
+      <c r="CS13" s="4"/>
+      <c r="CT13" s="4"/>
+      <c r="CU13" s="4"/>
+      <c r="CV13" s="4"/>
+      <c r="CW13" s="4"/>
+      <c r="CX13" s="4"/>
+      <c r="CY13" s="4"/>
+      <c r="CZ13" s="4"/>
+      <c r="DA13" s="4"/>
+      <c r="DB13" s="4"/>
+      <c r="DC13" s="4"/>
+      <c r="DD13" s="4"/>
+      <c r="DE13" s="4"/>
+      <c r="DF13" s="4"/>
+      <c r="DG13" s="4"/>
+    </row>
+    <row r="14" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="E14">
-        <v>553</v>
+        <v>66</v>
       </c>
       <c r="F14">
-        <v>167665</v>
+        <v>28132</v>
       </c>
       <c r="G14" s="1">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="H14" s="1">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1344,53 +1546,53 @@
         <v>16</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <f>AVERAGE(J14,L14,N14,P14,R14)</f>
+        <v>1.8</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J14,L14,N14,P14,R14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>49</v>
       </c>
       <c r="F15">
-        <v>26231</v>
+        <v>26182</v>
       </c>
       <c r="G15" s="1">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="H15" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1411,15 +1613,15 @@
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J15,L15,N15,P15,R15)</f>
+        <v>1.8</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <f>MEDIAN(J15,L15,N15,P15,R15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1445,13 +1647,13 @@
         <v>50</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1475,11 +1677,11 @@
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J16,L16,N16,P16,R16)</f>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J16,L16,N16,P16,R16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1509,19 +1711,19 @@
         <v>20</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1539,11 +1741,11 @@
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J17,L17,N17,P17,R17)</f>
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J17,L17,N17,P17,R17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1576,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -1603,11 +1805,11 @@
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>AVERAGE(J18,L18,N18,P18,R18)</f>
+        <v>0.4</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J18,L18,N18,P18,R18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1637,41 +1839,41 @@
         <v>56</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
         <v>4</v>
       </c>
-      <c r="K19">
-        <v>12</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
       <c r="S19" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J19,L19,N19,P19,R19)</f>
         <v>0.8</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J19,L19,N19,P19,R19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1731,11 +1933,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J20,L20,N20,P20,R20)</f>
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J20,L20,N20,P20,R20)</f>
         <v>0</v>
       </c>
     </row>
@@ -1795,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J21,L21,N21,P21,R21)</f>
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J21,L21,N21,P21,R21)</f>
         <v>0</v>
       </c>
     </row>
@@ -1829,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1838,10 +2040,10 @@
         <v>12</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1859,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J22,L22,N22,P22,R22)</f>
+        <v>0.8</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J22,L22,N22,P22,R22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1893,41 +2095,41 @@
         <v>35</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
         <v>9</v>
       </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>14</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>12</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
       <c r="S23" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f>AVERAGE(J23,L23,N23,P23,R23)</f>
+        <v>2.8</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J23,L23,N23,P23,R23)</f>
         <v>0</v>
       </c>
     </row>
@@ -1963,35 +2165,35 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J24,L24,N24,P24,R24)</f>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J24,L24,N24,P24,R24)</f>
         <v>0</v>
       </c>
     </row>
@@ -2021,19 +2223,19 @@
         <v>44</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2051,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J25,L25,N25,P25,R25)</f>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J25,L25,N25,P25,R25)</f>
         <v>0</v>
       </c>
     </row>
@@ -2085,19 +2287,19 @@
         <v>44</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2115,11 +2317,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J26,L26,N26,P26,R26)</f>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J26,L26,N26,P26,R26)</f>
         <v>0</v>
       </c>
     </row>
@@ -2155,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2179,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J27,L27,N27,P27,R27)</f>
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J27,L27,N27,P27,R27)</f>
         <v>0</v>
       </c>
     </row>
@@ -2213,19 +2415,19 @@
         <v>32</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2243,11 +2445,11 @@
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J28,L28,N28,P28,R28)</f>
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J28,L28,N28,P28,R28)</f>
         <v>0</v>
       </c>
     </row>
@@ -2277,25 +2479,25 @@
         <v>28</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2307,11 +2509,11 @@
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J29,L29,N29,P29,R29)</f>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J29,L29,N29,P29,R29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2344,22 +2546,22 @@
         <v>14</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2371,11 +2573,11 @@
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J30,L30,N30,P30,R30)</f>
+        <v>0.4</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J30,L30,N30,P30,R30)</f>
         <v>0</v>
       </c>
     </row>
@@ -2405,19 +2607,19 @@
         <v>40</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2435,11 +2637,11 @@
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J31,L31,N31,P31,R31)</f>
+        <v>0.8</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J31,L31,N31,P31,R31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2481,29 +2683,29 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J32,L32,N32,P32,R32)</f>
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J32,L32,N32,P32,R32)</f>
         <v>0</v>
       </c>
     </row>
@@ -2533,13 +2735,13 @@
         <v>37</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -2560,14 +2762,14 @@
         <v>16</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J33,L33,N33,P33,R33)</f>
+        <v>1.4</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J33,L33,N33,P33,R33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2597,13 +2799,13 @@
         <v>44</v>
       </c>
       <c r="I34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2627,11 +2829,11 @@
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J34,L34,N34,P34,R34)</f>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J34,L34,N34,P34,R34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2661,19 +2863,19 @@
         <v>28</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2691,11 +2893,11 @@
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J35,L35,N35,P35,R35)</f>
+        <v>0.4</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J35,L35,N35,P35,R35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2728,38 +2930,38 @@
         <v>14</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J36,L36,N36,P36,R36)</f>
+        <v>0.8</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J36,L36,N36,P36,R36)</f>
         <v>0</v>
       </c>
     </row>
@@ -2819,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J37,L37,N37,P37,R37)</f>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J37,L37,N37,P37,R37)</f>
         <v>0</v>
       </c>
     </row>
@@ -2853,19 +3055,19 @@
         <v>40</v>
       </c>
       <c r="I38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2877,17 +3079,17 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J38,L38,N38,P38,R38)</f>
+        <v>1.4</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J38,L38,N38,P38,R38)</f>
         <v>0</v>
       </c>
     </row>
@@ -2935,23 +3137,23 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J39,L39,N39,P39,R39)</f>
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J39,L39,N39,P39,R39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2981,19 +3183,19 @@
         <v>28</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3005,17 +3207,17 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J40,L40,N40,P40,R40)</f>
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J40,L40,N40,P40,R40)</f>
         <v>0</v>
       </c>
     </row>
@@ -3045,19 +3247,19 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3075,11 +3277,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J41,L41,N41,P41,R41)</f>
+        <v>0.4</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J41,L41,N41,P41,R41)</f>
         <v>0</v>
       </c>
     </row>
@@ -3115,35 +3317,35 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J42,L42,N42,P42,R42)</f>
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J42,L42,N42,P42,R42)</f>
         <v>0</v>
       </c>
     </row>
@@ -3173,25 +3375,25 @@
         <v>20</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3203,11 +3405,11 @@
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J43,L43,N43,P43,R43)</f>
+        <v>0.4</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J43,L43,N43,P43,R43)</f>
         <v>0</v>
       </c>
     </row>
@@ -3243,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3267,11 +3469,11 @@
         <v>0</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J44,L44,N44,P44,R44)</f>
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J44,L44,N44,P44,R44)</f>
         <v>0</v>
       </c>
     </row>
@@ -3301,19 +3503,19 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3325,17 +3527,17 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J45,L45,N45,P45,R45)</f>
         <v>0</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J45,L45,N45,P45,R45)</f>
         <v>0</v>
       </c>
     </row>
@@ -3365,25 +3567,25 @@
         <v>35</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3395,11 +3597,11 @@
         <v>0</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(J46,L46,N46,P46,R46)</f>
+        <v>0.4</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J46,L46,N46,P46,R46)</f>
         <v>0</v>
       </c>
     </row>
@@ -3441,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3459,11 +3661,11 @@
         <v>0</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J47,L47,N47,P47,R47)</f>
         <v>1</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(J47,L47,N47,P47,R47)</f>
         <v>0</v>
       </c>
     </row>
@@ -3472,962 +3674,1053 @@
         <v>4</v>
       </c>
       <c r="B48">
+        <v>0.2</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>1411</v>
+      </c>
+      <c r="F48">
+        <v>995353</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>16</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f>AVERAGE(J48,L48,N48,P48,R48)</f>
+        <v>0.4</v>
+      </c>
+      <c r="T48" s="1">
+        <f>MEDIAN(J48,L48,N48,P48,R48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D49" s="3">
+        <v>212</v>
+      </c>
+      <c r="E49" s="3">
+        <v>902</v>
+      </c>
+      <c r="F49" s="3">
+        <v>416490</v>
+      </c>
+      <c r="G49" s="3">
+        <v>212</v>
+      </c>
+      <c r="H49" s="3">
+        <v>68</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
+        <v>12</v>
+      </c>
+      <c r="L49" s="3">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>1</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
+        <f>AVERAGE(J49,L49,N49,P49,R49)</f>
+        <v>2.8</v>
+      </c>
+      <c r="T49" s="3">
+        <f>MEDIAN(J49,L49,N49,P49,R49)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D50" s="2">
+        <v>272</v>
+      </c>
+      <c r="E50" s="2">
+        <v>592</v>
+      </c>
+      <c r="F50" s="2">
+        <v>201644</v>
+      </c>
+      <c r="G50" s="2">
+        <v>272</v>
+      </c>
+      <c r="H50" s="2">
+        <v>73</v>
+      </c>
+      <c r="I50" s="2">
+        <v>14</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5</v>
+      </c>
+      <c r="K50" s="2">
+        <v>12</v>
+      </c>
+      <c r="L50" s="2">
+        <v>7</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>3</v>
+      </c>
+      <c r="P50" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>16</v>
+      </c>
+      <c r="R50" s="2">
+        <v>9</v>
+      </c>
+      <c r="S50" s="2">
+        <f>AVERAGE(J50,L50,N50,P50,R50)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T50" s="2">
+        <f>MEDIAN(J50,L50,N50,P50,R50)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
         <v>0.1</v>
       </c>
-      <c r="C48">
+      <c r="C51">
+        <v>0.9</v>
+      </c>
+      <c r="D51">
+        <v>1735</v>
+      </c>
+      <c r="E51">
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <v>33259</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1735</v>
+      </c>
+      <c r="H51" s="1">
+        <v>86</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>16</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51" s="1">
+        <f>AVERAGE(J51,L51,N51,P51,R51)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T51" s="1">
+        <f>MEDIAN(J51,L51,N51,P51,R51)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0.2</v>
+      </c>
+      <c r="C52">
+        <v>0.8</v>
+      </c>
+      <c r="D52">
+        <v>262</v>
+      </c>
+      <c r="E52">
+        <v>89</v>
+      </c>
+      <c r="F52">
+        <v>32040</v>
+      </c>
+      <c r="G52" s="1">
+        <v>262</v>
+      </c>
+      <c r="H52" s="1">
+        <v>65</v>
+      </c>
+      <c r="I52">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>16</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f>AVERAGE(J52,L52,N52,P52,R52)</f>
+        <v>1.4</v>
+      </c>
+      <c r="T52" s="1">
+        <f>MEDIAN(J52,L52,N52,P52,R52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+      <c r="C53">
         <v>0.6</v>
       </c>
-      <c r="D48">
+      <c r="D53">
+        <v>381</v>
+      </c>
+      <c r="E53">
+        <v>835</v>
+      </c>
+      <c r="F53">
+        <v>361627</v>
+      </c>
+      <c r="G53" s="1">
+        <v>381</v>
+      </c>
+      <c r="H53" s="1">
+        <v>79</v>
+      </c>
+      <c r="I53">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>16</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
+      </c>
+      <c r="S53" s="1">
+        <f>AVERAGE(J53,L53,N53,P53,R53)</f>
+        <v>2.6</v>
+      </c>
+      <c r="T53" s="1">
+        <f>MEDIAN(J53,L53,N53,P53,R53)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:111" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.6</v>
+      </c>
+      <c r="D54">
         <v>500</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>894</v>
       </c>
-      <c r="F48">
+      <c r="F54">
         <v>413873</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G54" s="1">
         <v>500</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H54" s="1">
         <v>83</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <v>7</v>
-      </c>
-      <c r="M48">
-        <v>3</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>14</v>
-      </c>
-      <c r="P48">
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
         <v>5</v>
       </c>
-      <c r="Q48">
-        <v>16</v>
-      </c>
-      <c r="R48">
-        <v>7</v>
-      </c>
-      <c r="S48" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="T48" s="1">
-        <f t="shared" si="1"/>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>16</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54" s="1">
+        <f>AVERAGE(J54,L54,N54,P54,R54)</f>
+        <v>2.6</v>
+      </c>
+      <c r="T54" s="1">
+        <f>MEDIAN(J54,L54,N54,P54,R54)</f>
+        <v>3</v>
+      </c>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+      <c r="BH54" s="4"/>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4"/>
+      <c r="BK54" s="4"/>
+      <c r="BL54" s="4"/>
+      <c r="BM54" s="4"/>
+      <c r="BN54" s="4"/>
+      <c r="BO54" s="4"/>
+      <c r="BP54" s="4"/>
+      <c r="BQ54" s="4"/>
+      <c r="BR54" s="4"/>
+      <c r="BS54" s="4"/>
+      <c r="BT54" s="4"/>
+      <c r="BU54" s="4"/>
+      <c r="BV54" s="4"/>
+      <c r="BW54" s="4"/>
+      <c r="BX54" s="4"/>
+      <c r="BY54" s="4"/>
+      <c r="BZ54" s="4"/>
+      <c r="CA54" s="4"/>
+      <c r="CB54" s="4"/>
+      <c r="CC54" s="4"/>
+      <c r="CD54" s="4"/>
+      <c r="CE54" s="4"/>
+      <c r="CF54" s="4"/>
+      <c r="CG54" s="4"/>
+      <c r="CH54" s="4"/>
+      <c r="CI54" s="4"/>
+      <c r="CJ54" s="4"/>
+      <c r="CK54" s="4"/>
+      <c r="CL54" s="4"/>
+      <c r="CM54" s="4"/>
+      <c r="CN54" s="4"/>
+      <c r="CO54" s="4"/>
+      <c r="CP54" s="4"/>
+      <c r="CQ54" s="4"/>
+      <c r="CR54" s="4"/>
+      <c r="CS54" s="4"/>
+      <c r="CT54" s="4"/>
+      <c r="CU54" s="4"/>
+      <c r="CV54" s="4"/>
+      <c r="CW54" s="4"/>
+      <c r="CX54" s="4"/>
+      <c r="CY54" s="4"/>
+      <c r="CZ54" s="4"/>
+      <c r="DA54" s="4"/>
+      <c r="DB54" s="4"/>
+      <c r="DC54" s="4"/>
+      <c r="DD54" s="4"/>
+      <c r="DE54" s="4"/>
+      <c r="DF54" s="4"/>
+      <c r="DG54" s="4"/>
+    </row>
+    <row r="55" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>0.1</v>
+      </c>
+      <c r="C55">
+        <v>0.7</v>
+      </c>
+      <c r="D55">
+        <v>799</v>
+      </c>
+      <c r="E55">
+        <v>510</v>
+      </c>
+      <c r="F55">
+        <v>156491</v>
+      </c>
+      <c r="G55" s="1">
+        <v>799</v>
+      </c>
+      <c r="H55" s="1">
+        <v>84</v>
+      </c>
+      <c r="I55">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>16</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55" s="1">
+        <f>AVERAGE(J55,L55,N55,P55,R55)</f>
+        <v>2.6</v>
+      </c>
+      <c r="T55" s="1">
+        <f>MEDIAN(J55,L55,N55,P55,R55)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
         <v>4</v>
       </c>
-      <c r="B49">
+      <c r="B56">
+        <v>0.2</v>
+      </c>
+      <c r="C56">
+        <v>0.9</v>
+      </c>
+      <c r="D56">
+        <v>258</v>
+      </c>
+      <c r="E56">
+        <v>79</v>
+      </c>
+      <c r="F56">
+        <v>29639</v>
+      </c>
+      <c r="G56" s="1">
+        <v>258</v>
+      </c>
+      <c r="H56" s="1">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56">
+        <v>12</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>16</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f>AVERAGE(J56,L56,N56,P56,R56)</f>
+        <v>1.8</v>
+      </c>
+      <c r="T56" s="1">
+        <f>MEDIAN(J56,L56,N56,P56,R56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>0.3</v>
+      </c>
+      <c r="C57">
+        <v>0.5</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>1411</v>
+      </c>
+      <c r="F57">
+        <v>995327</v>
+      </c>
+      <c r="G57" s="1">
+        <v>9</v>
+      </c>
+      <c r="H57" s="1">
+        <v>21</v>
+      </c>
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>12</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>16</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <f>AVERAGE(J57,L57,N57,P57,R57)</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <f>MEDIAN(J57,L57,N57,P57,R57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
         <v>0.1</v>
       </c>
-      <c r="C49">
+      <c r="C58">
         <v>0.7</v>
       </c>
-      <c r="D49">
+      <c r="D58">
         <v>908</v>
       </c>
-      <c r="E49">
+      <c r="E58">
         <v>610</v>
       </c>
-      <c r="F49">
+      <c r="F58">
         <v>206690</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G58" s="1">
         <v>908</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H58" s="1">
         <v>81</v>
       </c>
-      <c r="I49">
-        <v>12</v>
-      </c>
-      <c r="J49">
+      <c r="I58">
+        <v>14</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>12</v>
+      </c>
+      <c r="L58">
         <v>6</v>
       </c>
-      <c r="K49">
-        <v>14</v>
-      </c>
-      <c r="L49">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>3</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>16</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58" s="1">
+        <f>AVERAGE(J58,L58,N58,P58,R58)</f>
+        <v>3</v>
+      </c>
+      <c r="T58" s="1">
+        <f>MEDIAN(J58,L58,N58,P58,R58)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
+        <v>0.8</v>
+      </c>
+      <c r="D59">
+        <v>1425</v>
+      </c>
+      <c r="E59">
+        <v>115</v>
+      </c>
+      <c r="F59">
+        <v>35240</v>
+      </c>
+      <c r="G59" s="1">
+        <v>908</v>
+      </c>
+      <c r="H59" s="1">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>14</v>
+      </c>
+      <c r="J59">
         <v>5</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>3</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>16</v>
-      </c>
-      <c r="R49">
-        <v>9</v>
-      </c>
-      <c r="S49" s="1">
-        <f t="shared" si="0"/>
+      <c r="K59">
+        <v>12</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="T49" s="1">
-        <f t="shared" si="1"/>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59" s="1">
+        <f>AVERAGE(J59,L59,N59,P59,R59)</f>
+        <v>3.4</v>
+      </c>
+      <c r="T59" s="1">
+        <f>MEDIAN(J59,L59,N59,P59,R59)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>1583</v>
+      </c>
+      <c r="E60">
+        <v>105</v>
+      </c>
+      <c r="F60">
+        <v>39944</v>
+      </c>
+      <c r="G60" s="1">
+        <v>908</v>
+      </c>
+      <c r="H60" s="1">
+        <v>86</v>
+      </c>
+      <c r="I60">
+        <v>14</v>
+      </c>
+      <c r="J60">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+      <c r="K60">
+        <v>12</v>
+      </c>
+      <c r="L60">
         <v>4</v>
       </c>
-      <c r="B50">
-        <v>0.1</v>
-      </c>
-      <c r="C50">
-        <v>0.8</v>
-      </c>
-      <c r="D50">
-        <v>1583</v>
-      </c>
-      <c r="E50">
-        <v>105</v>
-      </c>
-      <c r="F50">
-        <v>39944</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1583</v>
-      </c>
-      <c r="H50" s="1">
-        <v>86</v>
-      </c>
-      <c r="I50">
-        <v>14</v>
-      </c>
-      <c r="J50">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>16</v>
+      </c>
+      <c r="R60">
         <v>5</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>12</v>
-      </c>
-      <c r="N50">
+      <c r="S60" s="1">
+        <f>AVERAGE(J60,L60,N60,P60,R60)</f>
+        <v>3.2</v>
+      </c>
+      <c r="T60" s="1">
+        <f>MEDIAN(J60,L60,N60,P60,R60)</f>
         <v>4</v>
       </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>16</v>
-      </c>
-      <c r="R50">
-        <v>5</v>
-      </c>
-      <c r="S50" s="1">
+    </row>
+    <row r="61" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>0.3</v>
+      </c>
+      <c r="C61">
+        <v>0.9</v>
+      </c>
+      <c r="D61">
+        <v>82</v>
+      </c>
+      <c r="E61">
+        <v>79</v>
+      </c>
+      <c r="F61">
+        <v>29553</v>
+      </c>
+      <c r="G61" s="1">
+        <v>908</v>
+      </c>
+      <c r="H61" s="1">
+        <v>50</v>
+      </c>
+      <c r="I61">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>12</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>3</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>16</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <f t="shared" ref="S3:S66" si="0">AVERAGE(J61,L61,N61,P61,R61)</f>
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" ref="T3:T66" si="1">MEDIAN(J61,L61,N61,P61,R61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:111" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0.4</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>1364</v>
+      </c>
+      <c r="F62">
+        <v>930604</v>
+      </c>
+      <c r="G62" s="1">
+        <v>908</v>
+      </c>
+      <c r="H62" s="1">
+        <v>22</v>
+      </c>
+      <c r="I62">
+        <v>14</v>
+      </c>
+      <c r="J62">
+        <v>14</v>
+      </c>
+      <c r="K62">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>16</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="T50" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>0.1</v>
-      </c>
-      <c r="C51">
-        <v>0.9</v>
-      </c>
-      <c r="D51">
-        <v>1735</v>
-      </c>
-      <c r="E51">
-        <v>77</v>
-      </c>
-      <c r="F51">
-        <v>33259</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1735</v>
-      </c>
-      <c r="H51" s="1">
-        <v>86</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>14</v>
-      </c>
-      <c r="L51">
-        <v>5</v>
-      </c>
-      <c r="M51">
-        <v>3</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>12</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>16</v>
-      </c>
-      <c r="R51">
-        <v>3</v>
-      </c>
-      <c r="S51" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="T51" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52">
-        <v>0.2</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
-        <v>18</v>
-      </c>
-      <c r="E52">
-        <v>1411</v>
-      </c>
-      <c r="F52">
-        <v>995353</v>
-      </c>
-      <c r="G52" s="1">
-        <v>18</v>
-      </c>
-      <c r="H52" s="1">
-        <v>20</v>
-      </c>
-      <c r="I52">
-        <v>14</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>12</v>
-      </c>
-      <c r="L52">
-        <v>2</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>3</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>16</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="T52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53">
-        <v>0.2</v>
-      </c>
-      <c r="C53">
-        <v>0.6</v>
-      </c>
-      <c r="D53">
-        <v>212</v>
-      </c>
-      <c r="E53">
-        <v>902</v>
-      </c>
-      <c r="F53">
-        <v>416490</v>
-      </c>
-      <c r="G53" s="1">
-        <v>212</v>
-      </c>
-      <c r="H53" s="1">
-        <v>68</v>
-      </c>
-      <c r="I53">
-        <v>14</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
-      </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53">
-        <v>12</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>16</v>
-      </c>
-      <c r="R53">
-        <v>4</v>
-      </c>
-      <c r="S53" s="1">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T53" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>0.2</v>
-      </c>
-      <c r="C54">
-        <v>0.7</v>
-      </c>
-      <c r="D54">
-        <v>272</v>
-      </c>
-      <c r="E54">
-        <v>592</v>
-      </c>
-      <c r="F54">
-        <v>201644</v>
-      </c>
-      <c r="G54" s="1">
-        <v>272</v>
-      </c>
-      <c r="H54" s="1">
-        <v>73</v>
-      </c>
-      <c r="I54">
-        <v>14</v>
-      </c>
-      <c r="J54">
-        <v>5</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>12</v>
-      </c>
-      <c r="N54">
-        <v>7</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>16</v>
-      </c>
-      <c r="R54">
-        <v>9</v>
-      </c>
-      <c r="S54" s="1">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
-      </c>
-      <c r="T54" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55">
-        <v>0.2</v>
-      </c>
-      <c r="C55">
-        <v>0.8</v>
-      </c>
-      <c r="D55">
-        <v>262</v>
-      </c>
-      <c r="E55">
-        <v>89</v>
-      </c>
-      <c r="F55">
-        <v>32040</v>
-      </c>
-      <c r="G55" s="1">
-        <v>262</v>
-      </c>
-      <c r="H55" s="1">
-        <v>65</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>12</v>
-      </c>
-      <c r="L55">
-        <v>4</v>
-      </c>
-      <c r="M55">
-        <v>3</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>14</v>
-      </c>
-      <c r="P55">
-        <v>5</v>
-      </c>
-      <c r="Q55">
-        <v>16</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="T55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56">
-        <v>0.2</v>
-      </c>
-      <c r="C56">
-        <v>0.9</v>
-      </c>
-      <c r="D56">
-        <v>258</v>
-      </c>
-      <c r="E56">
-        <v>79</v>
-      </c>
-      <c r="F56">
-        <v>29639</v>
-      </c>
-      <c r="G56" s="1">
-        <v>258</v>
-      </c>
-      <c r="H56" s="1">
-        <v>63</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>14</v>
-      </c>
-      <c r="L56">
-        <v>5</v>
-      </c>
-      <c r="M56">
-        <v>12</v>
-      </c>
-      <c r="N56">
-        <v>4</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>16</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="T56" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>0.3</v>
-      </c>
-      <c r="C57">
-        <v>0.5</v>
-      </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>1411</v>
-      </c>
-      <c r="F57">
-        <v>995327</v>
-      </c>
-      <c r="G57" s="1">
-        <v>9</v>
-      </c>
-      <c r="H57" s="1">
-        <v>21</v>
-      </c>
-      <c r="I57">
-        <v>14</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>12</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>16</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>3</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>0.3</v>
-      </c>
-      <c r="C58">
-        <v>0.6</v>
-      </c>
-      <c r="D58">
-        <v>68</v>
-      </c>
-      <c r="E58">
-        <v>829</v>
-      </c>
-      <c r="F58">
-        <v>353361</v>
-      </c>
-      <c r="G58" s="1">
-        <v>68</v>
-      </c>
-      <c r="H58" s="1">
-        <v>52</v>
-      </c>
-      <c r="I58">
-        <v>16</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>3</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>14</v>
-      </c>
-      <c r="P58">
-        <v>5</v>
-      </c>
-      <c r="Q58">
-        <v>12</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T58" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>0.3</v>
-      </c>
-      <c r="C59">
-        <v>0.7</v>
-      </c>
-      <c r="D59">
-        <v>69</v>
-      </c>
-      <c r="E59">
-        <v>638</v>
-      </c>
-      <c r="F59">
-        <v>227608</v>
-      </c>
-      <c r="G59" s="1">
-        <v>69</v>
-      </c>
-      <c r="H59" s="1">
-        <v>56</v>
-      </c>
-      <c r="I59">
-        <v>12</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>14</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>16</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>3</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="T59" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>0.3</v>
-      </c>
-      <c r="C60">
-        <v>0.8</v>
-      </c>
-      <c r="D60">
-        <v>74</v>
-      </c>
-      <c r="E60">
-        <v>89</v>
-      </c>
-      <c r="F60">
-        <v>30140</v>
-      </c>
-      <c r="G60" s="1">
-        <v>74</v>
-      </c>
-      <c r="H60" s="1">
-        <v>51</v>
-      </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>16</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>12</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>14</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61">
-        <v>0.3</v>
-      </c>
-      <c r="C61">
-        <v>0.9</v>
-      </c>
-      <c r="D61">
-        <v>82</v>
-      </c>
-      <c r="E61">
-        <v>79</v>
-      </c>
-      <c r="F61">
-        <v>29553</v>
-      </c>
-      <c r="G61" s="1">
-        <v>82</v>
-      </c>
-      <c r="H61" s="1">
-        <v>50</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>14</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>12</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>16</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>3</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>0.4</v>
-      </c>
-      <c r="C62">
-        <v>0.5</v>
-      </c>
-      <c r="D62">
-        <v>8</v>
-      </c>
-      <c r="E62">
-        <v>1364</v>
-      </c>
-      <c r="F62">
-        <v>930604</v>
-      </c>
-      <c r="G62" s="1">
-        <v>8</v>
-      </c>
-      <c r="H62" s="1">
-        <v>22</v>
-      </c>
-      <c r="I62">
-        <v>14</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>12</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>16</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>3</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="T62" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4447,22 +4740,22 @@
         <v>456562</v>
       </c>
       <c r="G63" s="1">
-        <v>46</v>
+        <v>908</v>
       </c>
       <c r="H63" s="1">
         <v>42</v>
       </c>
       <c r="I63">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -4484,14 +4777,14 @@
       </c>
       <c r="S63" s="1">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>4</v>
       </c>
@@ -4511,25 +4804,25 @@
         <v>191991</v>
       </c>
       <c r="G64" s="1">
-        <v>54</v>
+        <v>908</v>
       </c>
       <c r="H64" s="1">
         <v>57</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64">
         <v>12</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4544,15 +4837,15 @@
         <v>16</v>
       </c>
       <c r="R64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S64" s="1">
         <f t="shared" si="0"/>
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -4575,44 +4868,44 @@
         <v>30053</v>
       </c>
       <c r="G65" s="1">
-        <v>48</v>
+        <v>908</v>
       </c>
       <c r="H65" s="1">
         <v>47</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R65">
         <v>0</v>
       </c>
       <c r="S65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" si="1"/>
@@ -4639,7 +4932,7 @@
         <v>29477</v>
       </c>
       <c r="G66" s="1">
-        <v>57</v>
+        <v>908</v>
       </c>
       <c r="H66" s="1">
         <v>47</v>
@@ -4648,16 +4941,16 @@
         <v>14</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4676,7 +4969,7 @@
       </c>
       <c r="S66" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T66" s="1">
         <f t="shared" si="1"/>
@@ -4703,19 +4996,19 @@
         <v>984840</v>
       </c>
       <c r="G67" s="1">
-        <v>5</v>
+        <v>908</v>
       </c>
       <c r="H67" s="1">
         <v>20</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K67">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -4740,7 +5033,7 @@
       </c>
       <c r="S67" s="1">
         <f t="shared" ref="S67:S91" si="2">AVERAGE(J67,L67,N67,P67,R67)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" ref="T67:T91" si="3">MEDIAN(J67,L67,N67,P67,R67)</f>
@@ -4767,22 +5060,22 @@
         <v>556904</v>
       </c>
       <c r="G68" s="1">
-        <v>38</v>
+        <v>908</v>
       </c>
       <c r="H68" s="1">
         <v>45</v>
       </c>
       <c r="I68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
         <v>5</v>
-      </c>
-      <c r="K68">
-        <v>14</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -4831,7 +5124,7 @@
         <v>182066</v>
       </c>
       <c r="G69" s="1">
-        <v>26</v>
+        <v>908</v>
       </c>
       <c r="H69" s="1">
         <v>52</v>
@@ -4843,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -4855,20 +5148,20 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S69" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" si="3"/>
@@ -4895,13 +5188,13 @@
         <v>30056</v>
       </c>
       <c r="G70" s="1">
-        <v>26</v>
+        <v>908</v>
       </c>
       <c r="H70" s="1">
         <v>44</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4910,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -4919,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4932,7 +5225,7 @@
       </c>
       <c r="S70" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T70" s="1">
         <f t="shared" si="3"/>
@@ -4959,13 +5252,13 @@
         <v>29353</v>
       </c>
       <c r="G71" s="1">
-        <v>33</v>
+        <v>908</v>
       </c>
       <c r="H71" s="1">
         <v>44</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4974,10 +5267,10 @@
         <v>12</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4996,7 +5289,7 @@
       </c>
       <c r="S71" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T71" s="1">
         <f t="shared" si="3"/>
@@ -5057,42 +5350,42 @@
         <v>42</v>
       </c>
       <c r="I73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>0</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S73" s="1">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="T73" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -5121,7 +5414,7 @@
         <v>28</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5133,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>0</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5185,19 +5478,19 @@
         <v>29</v>
       </c>
       <c r="I75">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5249,16 +5542,16 @@
         <v>40</v>
       </c>
       <c r="I76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -5280,7 +5573,7 @@
       </c>
       <c r="S76" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" si="3"/>
@@ -5341,10 +5634,10 @@
         <v>41</v>
       </c>
       <c r="I78">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78">
         <v>12</v>
@@ -5353,26 +5646,26 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>0</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S78" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" si="3"/>
@@ -5405,13 +5698,13 @@
         <v>46</v>
       </c>
       <c r="I79">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -5472,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80">
         <v>12</v>
@@ -5500,7 +5793,7 @@
       </c>
       <c r="S80" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T80" s="1">
         <f t="shared" si="3"/>
@@ -5533,38 +5826,38 @@
         <v>39</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>0</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
       <c r="S81" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T81" s="1">
         <f t="shared" si="3"/>
@@ -5625,38 +5918,38 @@
         <v>36</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K83">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>0</v>
       </c>
       <c r="O83">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T83" s="1">
         <f t="shared" si="3"/>
@@ -5689,38 +5982,38 @@
         <v>38</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M84">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R84">
         <v>0</v>
       </c>
       <c r="S84" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T84" s="1">
         <f t="shared" si="3"/>
@@ -5753,25 +6046,25 @@
         <v>28</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>0</v>
       </c>
       <c r="O85">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5817,16 +6110,16 @@
         <v>39</v>
       </c>
       <c r="I86">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -5848,7 +6141,7 @@
       </c>
       <c r="S86" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T86" s="1">
         <f t="shared" si="3"/>
@@ -5940,7 +6233,7 @@
         <v>14</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89">
         <v>12</v>
@@ -5968,7 +6261,7 @@
       </c>
       <c r="S89" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T89" s="1">
         <f t="shared" si="3"/>
@@ -6004,7 +6297,7 @@
         <v>14</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90">
         <v>12</v>
@@ -6032,7 +6325,7 @@
       </c>
       <c r="S90" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" si="3"/>
@@ -6068,35 +6361,35 @@
         <v>14</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <v>12</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
       <c r="S91" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T91" s="1">
         <f t="shared" si="3"/>
@@ -6104,6 +6397,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T91" xr:uid="{F1BD3EB2-1DC3-48AC-8439-64FADCFB7FA8}">
+    <sortState ref="A7:T56">
+      <sortCondition ref="A1:A91"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>